--- a/updated_celtic_project-main/src/test/resources/DataProvider/RIN.xlsx
+++ b/updated_celtic_project-main/src/test/resources/DataProvider/RIN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkingDirectory\CelticProject_Framework-main\src\test\resources\DataProvider\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkingDirectory\updated_celtic_project-main\src\test\resources\DataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A68584-45A4-4C99-BECE-80789162EB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF6EA93-55FC-441E-98D5-2401740304D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{D640E293-758B-4626-A40B-CD56E3B07BFF}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>AccountNo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>InactiveDate</t>
   </si>
@@ -60,6 +57,18 @@
   </si>
   <si>
     <t>30941</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>MCENumber</t>
+  </si>
+  <si>
+    <t>987897465</t>
+  </si>
+  <si>
+    <t>30942</t>
   </si>
 </sst>
 </file>
@@ -95,9 +104,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,28 +424,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19350A59-09D4-4F0F-9855-31C3D933F9C7}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -443,10 +472,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F48C43F-3384-475E-85A0-187445A3DB1A}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -457,18 +486,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/updated_celtic_project-main/src/test/resources/DataProvider/RIN.xlsx
+++ b/updated_celtic_project-main/src/test/resources/DataProvider/RIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkingDirectory\updated_celtic_project-main\src\test\resources\DataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF6EA93-55FC-441E-98D5-2401740304D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C12D36C-3461-4FAC-9370-7CD96B2BA1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{D640E293-758B-4626-A40B-CD56E3B07BFF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>InactiveDate</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>IRPBILL01 : [I] Reinstatement process completed successfully.</t>
-  </si>
-  <si>
-    <t>30941</t>
   </si>
   <si>
     <t>AccountNumber</t>
@@ -424,45 +421,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19350A59-09D4-4F0F-9855-31C3D933F9C7}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -472,10 +480,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F48C43F-3384-475E-85A0-187445A3DB1A}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -508,6 +516,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
